--- a/Postman.xlsx
+++ b/Postman.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Method</t>
   </si>
@@ -151,6 +151,34 @@
     "quantity": 1,
     "price": 10000.0
 }</t>
+  </si>
+  <si>
+    <t>/user/forgetpassword</t>
+  </si>
+  <si>
+    <t>Forget Password</t>
+  </si>
+  <si>
+    <t>{
+"email" : yanto@gmail.com
+}</t>
+  </si>
+  <si>
+    <t>/user/Resetpass</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>{
+"password": NewPass123
+}</t>
+  </si>
+  <si>
+    <t>Password has been reset</t>
+  </si>
+  <si>
+    <t>Please Use this Token: .......</t>
   </si>
 </sst>
 </file>
@@ -209,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -270,19 +298,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -371,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -388,26 +403,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -415,8 +430,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -424,10 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,7 +448,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="B2:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,22 +748,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -759,19 +771,19 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -779,97 +791,137 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="17" t="s">
-        <v>15</v>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+    <row r="9" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>29</v>
       </c>
     </row>
